--- a/SQL/Book1.xlsx
+++ b/SQL/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chien\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DH_CNDA\DACN1\DACN1\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3ECA92-E829-45CF-97B8-EEEFE2C7976E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70E38B6-4FAA-4497-9219-1D752C9782B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5448" yWindow="2316" windowWidth="9312" windowHeight="12192" xr2:uid="{4768B4C4-959E-4FA0-B170-91749BDB7074}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{4768B4C4-959E-4FA0-B170-91749BDB7074}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="115">
   <si>
     <t>admin</t>
   </si>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8585E7D5-6979-47FB-AB11-8183615A8D56}">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1843,7 +1843,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>57</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>58</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>59</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -1875,65 +1875,83 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>81</v>
       </c>
       <c r="B87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>81</v>
       </c>
       <c r="B88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>57</v>
       </c>
       <c r="B89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>57</v>
       </c>
       <c r="B90">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>58</v>
       </c>
       <c r="B91">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>1</v>
       </c>
@@ -1941,7 +1959,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -1949,7 +1967,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -1957,7 +1975,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3</v>
       </c>

--- a/SQL/Book1.xlsx
+++ b/SQL/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DH_CNDA\DACN1\DACN1\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70E38B6-4FAA-4497-9219-1D752C9782B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E1322F-7A99-461D-821C-182D9E2883FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{4768B4C4-959E-4FA0-B170-91749BDB7074}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4768B4C4-959E-4FA0-B170-91749BDB7074}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="114">
   <si>
     <t>admin</t>
   </si>
@@ -138,12 +138,6 @@
     <t>mo ta</t>
   </si>
   <si>
-    <t>MaVanDon</t>
-  </si>
-  <si>
-    <t>donViVanChuyen</t>
-  </si>
-  <si>
     <t>ma1</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>ma5</t>
   </si>
   <si>
-    <t>vp</t>
-  </si>
-  <si>
     <t>j&amp;t</t>
   </si>
   <si>
@@ -379,6 +370,12 @@
   </si>
   <si>
     <t>tk7</t>
+  </si>
+  <si>
+    <t>vnpost</t>
+  </si>
+  <si>
+    <t>huỷ đơn</t>
   </si>
 </sst>
 </file>
@@ -763,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8585E7D5-6979-47FB-AB11-8183615A8D56}">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -784,41 +781,41 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -835,10 +832,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -855,10 +852,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -875,10 +872,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -895,10 +892,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -915,10 +912,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -938,7 +935,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -973,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>4</v>
@@ -1120,7 +1117,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1146,7 +1143,7 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1172,7 +1169,7 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1198,7 +1195,7 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1224,7 +1221,7 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1250,7 +1247,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1276,7 +1273,7 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1302,7 +1299,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1321,61 +1318,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" t="s">
-        <v>41</v>
-      </c>
-    </row>
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1391,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1399,7 +1347,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1407,12 +1355,12 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1420,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1455,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -1463,14 +1411,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>17</v>
@@ -1479,10 +1427,10 @@
         <v>19</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -1496,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1510,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1524,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -1538,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -1552,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5</v>
       </c>
@@ -1566,55 +1514,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="F62" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="G62" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="H62" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="I62" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="J62" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>77</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
         <v>78</v>
       </c>
-      <c r="I62" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63">
-        <v>2</v>
-      </c>
-      <c r="C63" t="s">
-        <v>81</v>
-      </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -1625,22 +1576,25 @@
       <c r="I63" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F64">
         <v>4</v>
@@ -1651,22 +1605,25 @@
       <c r="I64" t="s">
         <v>9</v>
       </c>
+      <c r="J64" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D65">
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F65">
         <v>4</v>
@@ -1677,22 +1634,25 @@
       <c r="I65" t="s">
         <v>9</v>
       </c>
+      <c r="J65" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D66">
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F66">
         <v>4</v>
@@ -1703,22 +1663,25 @@
       <c r="I66" t="s">
         <v>9</v>
       </c>
+      <c r="J66" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B67">
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D67">
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F67">
         <v>4</v>
@@ -1729,38 +1692,41 @@
       <c r="I67" t="s">
         <v>9</v>
       </c>
+      <c r="J67" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="F71" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="G71" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -1769,7 +1735,7 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F72" s="3">
         <v>45201</v>
@@ -1780,7 +1746,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -1789,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F73" s="3">
         <v>45201</v>
@@ -1800,24 +1766,24 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>8</v>
@@ -1832,60 +1798,60 @@
         <v>7</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B82" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B84" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>22</v>
@@ -1893,7 +1859,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -1904,7 +1870,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -1915,7 +1881,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -1926,7 +1892,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B90">
         <v>4</v>
@@ -1937,7 +1903,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -1948,7 +1914,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1956,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1964,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1972,7 +1938,7 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1980,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1988,7 +1954,15 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/SQL/Book1.xlsx
+++ b/SQL/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DH_CNDA\DACN1\DACN1\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E1322F-7A99-461D-821C-182D9E2883FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E778C3-D7DC-4ECD-BDB9-9DDFB97C1429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4768B4C4-959E-4FA0-B170-91749BDB7074}"/>
   </bookViews>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8585E7D5-6979-47FB-AB11-8183615A8D56}">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
